--- a/biology/Botanique/Florideophycidae/Florideophycidae.xlsx
+++ b/biology/Botanique/Florideophycidae/Florideophycidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-classe des Florideophycidae est une sous-classe d'algues rouges proposée par Friedrich Schmitz en 1892. Depuis, la description de ce taxon est régulièrement discutée, notamment par Christine Maggs (1989).
 Elle correspond à la classe des Florideophyceae Cronquist, 1960. 
@@ -512,7 +524,9 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 ordre Ceramiales
@@ -600,9 +614,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (24 nov. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (24 nov. 2012) :
 ordre Acrochaetiales
 ordre Acrosymphytales
 ordre Balbianiales
@@ -629,7 +645,7 @@
 ordre Sebdeniales
 ordre Sporolithales
 ordre Thoreales
-Selon World Register of Marine Species                               (24 nov. 2012)[2] :
+Selon World Register of Marine Species                               (24 nov. 2012) :
 ordre Cryptonemiales
 ordre Sphaerococcales</t>
         </is>
